--- a/NformTester/NformTester/Keywordscripts/600.20.20.200_ConfigureWriteFileAction.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.20.200_ConfigureWriteFileAction.xlsx
@@ -1204,7 +1204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7331" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7343" uniqueCount="835">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4025,7 +4025,35 @@
     <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4042,74 +4070,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -4541,7 +4501,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4818,10 +4778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O66"/>
+  <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5029,7 +4989,7 @@
         <v>756</v>
       </c>
       <c r="B7" s="17">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
@@ -6284,14 +6244,12 @@
         <v>300</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>303</v>
+        <v>95</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>829</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
@@ -6304,13 +6262,13 @@
         <v>53</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>789</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>300</v>
+        <v>791</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>2</v>
@@ -6328,13 +6286,13 @@
         <v>54</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>834</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>822</v>
+        <v>791</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>194</v>
+        <v>75</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>2</v>
@@ -6352,16 +6310,20 @@
         <v>55</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>787</v>
-      </c>
-      <c r="F56" s="2">
-        <v>5</v>
-      </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>829</v>
+      </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -6380,7 +6342,7 @@
         <v>300</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>2</v>
@@ -6393,16 +6355,22 @@
       <c r="M57" s="2"/>
       <c r="N57" s="8"/>
     </row>
-    <row r="58" spans="3:14" ht="15">
+    <row r="58" spans="3:14">
       <c r="C58" s="2">
         <v>57</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>823</v>
-      </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
+      <c r="D58" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -6415,91 +6383,81 @@
       <c r="C59" s="2">
         <v>58</v>
       </c>
-      <c r="D59" s="10" t="s">
-        <v>819</v>
+      <c r="D59" s="6" t="s">
+        <v>786</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>820</v>
-      </c>
-      <c r="F59" s="11">
-        <v>5</v>
-      </c>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
-      <c r="M59" s="11"/>
-      <c r="N59" s="12"/>
+        <v>787</v>
+      </c>
+      <c r="F59" s="2">
+        <v>5</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="8"/>
     </row>
     <row r="60" spans="3:14">
       <c r="C60" s="2">
         <v>59</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="6" t="s">
         <v>789</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="12"/>
+        <v>300</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="8"/>
     </row>
-    <row r="61" spans="3:14">
+    <row r="61" spans="3:14" ht="15">
       <c r="C61" s="2">
         <v>60</v>
       </c>
-      <c r="D61" s="10" t="s">
-        <v>821</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="12"/>
+      <c r="D61" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="E61" s="4"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="8"/>
     </row>
     <row r="62" spans="3:14">
       <c r="C62" s="2">
         <v>61</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>824</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>818</v>
-      </c>
+        <v>820</v>
+      </c>
+      <c r="F62" s="11">
+        <v>5</v>
+      </c>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
@@ -6507,24 +6465,24 @@
       <c r="M62" s="11"/>
       <c r="N62" s="12"/>
     </row>
-    <row r="63" spans="3:14" ht="14.25">
+    <row r="63" spans="3:14">
       <c r="C63" s="2">
         <v>62</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>821</v>
+        <v>789</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>824</v>
+        <v>19</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H63" s="13"/>
-      <c r="I63" s="11"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
       <c r="L63" s="11"/>
@@ -6538,17 +6496,17 @@
       <c r="D64" s="10" t="s">
         <v>821</v>
       </c>
-      <c r="E64" s="11" t="s">
-        <v>575</v>
+      <c r="E64" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="G64" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H64" s="4"/>
-      <c r="I64" s="11"/>
+      <c r="I64" s="4"/>
       <c r="J64" s="11"/>
       <c r="K64" s="11"/>
       <c r="L64" s="11"/>
@@ -6566,34 +6524,38 @@
         <v>824</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>95</v>
+        <v>570</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="I65" s="11"/>
       <c r="J65" s="11"/>
       <c r="K65" s="11"/>
       <c r="L65" s="11"/>
       <c r="M65" s="11"/>
       <c r="N65" s="12"/>
     </row>
-    <row r="66" spans="3:14">
+    <row r="66" spans="3:14" ht="14.25">
       <c r="C66" s="2">
         <v>65</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>786</v>
+        <v>821</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>820</v>
-      </c>
-      <c r="F66" s="11">
-        <v>3</v>
-      </c>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
+        <v>824</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H66" s="13"/>
       <c r="I66" s="11"/>
       <c r="J66" s="11"/>
       <c r="K66" s="11"/>
@@ -6601,27 +6563,97 @@
       <c r="M66" s="11"/>
       <c r="N66" s="12"/>
     </row>
+    <row r="67" spans="3:14">
+      <c r="C67" s="2">
+        <v>66</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>821</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H67" s="4"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="12"/>
+    </row>
+    <row r="68" spans="3:14">
+      <c r="C68" s="2">
+        <v>67</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>821</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="12"/>
+    </row>
+    <row r="69" spans="3:14">
+      <c r="C69" s="2">
+        <v>68</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="F69" s="11">
+        <v>3</v>
+      </c>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="12"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N66">
-    <cfRule type="cellIs" dxfId="1" priority="23" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N69">
+    <cfRule type="cellIs" dxfId="5" priority="23" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="24" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D52:D57 D43:D49 D60 D66 D7:D35 D41 D3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D43:D49 D63 D69 D7:D35 D41 D52:D60">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G63:G66 G2:G61">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G66:G69 G2:G64">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F66">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F69">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E66">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E69">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/Keywordscripts/600.20.20.200_ConfigureWriteFileAction.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.20.200_ConfigureWriteFileAction.xlsx
@@ -3618,9 +3618,6 @@
     <t>"test-writefile"</t>
   </si>
   <si>
-    <t>"C:\Nform\result.dat"</t>
-  </si>
-  <si>
     <t>"99"</t>
   </si>
   <si>
@@ -3759,6 +3756,10 @@
   </si>
   <si>
     <t>;</t>
+  </si>
+  <si>
+    <t>"C:\result.dat"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4025,35 +4026,7 @@
     <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -4780,8 +4753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="E31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4845,7 +4818,7 @@
         <v>750</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -4870,13 +4843,13 @@
         <v>751</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>0</v>
@@ -4886,13 +4859,13 @@
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>810</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>811</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -4911,7 +4884,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -4942,17 +4915,17 @@
         <v>569</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>815</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>816</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -4964,13 +4937,13 @@
         <v>755</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="2"/>
@@ -5017,7 +4990,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="15" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="2">
@@ -5065,10 +5038,10 @@
         <v>7</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J9" s="2" t="b">
         <v>1</v>
@@ -5156,7 +5129,7 @@
         <v>4</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -5305,7 +5278,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="2"/>
@@ -5367,7 +5340,7 @@
         <v>4</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="2"/>
@@ -5429,7 +5402,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -5460,7 +5433,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -5543,7 +5516,7 @@
         <v>13</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="2"/>
@@ -5570,7 +5543,7 @@
         <v>13</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -5597,7 +5570,7 @@
         <v>13</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -5624,7 +5597,7 @@
         <v>13</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -5651,7 +5624,7 @@
         <v>13</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -5678,7 +5651,7 @@
         <v>4</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -5830,7 +5803,7 @@
         <v>4</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>795</v>
+        <v>834</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="2"/>
@@ -5870,7 +5843,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>304</v>
@@ -5879,7 +5852,7 @@
         <v>309</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>794</v>
@@ -5970,7 +5943,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
@@ -6048,7 +6021,7 @@
         <v>56</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -6098,7 +6071,7 @@
         <v>56</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -6124,10 +6097,10 @@
         <v>7</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J48" s="2" t="b">
         <v>1</v>
@@ -6322,7 +6295,7 @@
         <v>56</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -6360,10 +6333,10 @@
         <v>57</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>194</v>
@@ -6430,7 +6403,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="2"/>
@@ -6448,10 +6421,10 @@
         <v>61</v>
       </c>
       <c r="D62" s="10" t="s">
+        <v>818</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>819</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>820</v>
       </c>
       <c r="F62" s="11">
         <v>5</v>
@@ -6494,7 +6467,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>19</v>
@@ -6518,10 +6491,10 @@
         <v>64</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F65" s="11" t="s">
         <v>570</v>
@@ -6530,7 +6503,7 @@
         <v>3</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I65" s="11"/>
       <c r="J65" s="11"/>
@@ -6544,10 +6517,10 @@
         <v>65</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F66" s="11" t="s">
         <v>178</v>
@@ -6568,7 +6541,7 @@
         <v>66</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>575</v>
@@ -6592,10 +6565,10 @@
         <v>67</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F68" s="11" t="s">
         <v>95</v>
@@ -6619,7 +6592,7 @@
         <v>786</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F69" s="11">
         <v>3</v>
@@ -6636,10 +6609,10 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="N2:N69">
-    <cfRule type="cellIs" dxfId="5" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="23" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="24" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
